--- a/env/data/route_news.xlsx
+++ b/env/data/route_news.xlsx
@@ -1,25 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\erzhu419\mine_code\LSTM-RL\env\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C28589-2FA5-4991-957D-B23622B270B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="14250"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="47">
   <si>
     <t>start_stop</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -170,14 +185,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>X01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Terminal_down</t>
   </si>
   <si>
@@ -185,50 +192,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>X21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Terminal_up</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>X00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>X15</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>X18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -561,28 +540,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="5" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="3" max="5" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -641,7 +620,7 @@
         <v>0.79166666666666696</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -649,7 +628,7 @@
         <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2">
         <v>500</v>
@@ -659,39 +638,39 @@
       </c>
       <c r="F2" s="2">
         <f ca="1">INT(RAND()*7+4.5)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" ref="G2:Q2" ca="1" si="0">INT(RAND()*7+4.5)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -699,30 +678,30 @@
       </c>
       <c r="P2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R2" s="2">
         <f ca="1">INT(RAND()*7+4.5)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S2" s="2">
         <f ca="1">INT(RAND()*7+4.5)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2">
         <v>500</v>
@@ -731,12 +710,12 @@
         <v>15</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:Q47" ca="1" si="1">INT(RAND()*7+4.5)</f>
-        <v>5</v>
+        <f t="shared" ref="F3:Q43" ca="1" si="1">INT(RAND()*7+4.5)</f>
+        <v>8</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -748,7 +727,7 @@
       </c>
       <c r="J3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -756,11 +735,11 @@
       </c>
       <c r="L3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -768,23 +747,23 @@
       </c>
       <c r="O3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R3" s="2">
-        <f t="shared" ref="R3:S47" ca="1" si="2">INT(RAND()*7+4.5)</f>
-        <v>6</v>
+        <f t="shared" ref="R3:S43" ca="1" si="2">INT(RAND()*7+4.5)</f>
+        <v>10</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -792,10 +771,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2">
         <v>500</v>
@@ -805,35 +784,35 @@
       </c>
       <c r="F4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -841,11 +820,11 @@
       </c>
       <c r="O4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -853,11 +832,11 @@
       </c>
       <c r="R4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -865,10 +844,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2">
         <v>500</v>
@@ -878,7 +857,7 @@
       </c>
       <c r="F5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -886,35 +865,35 @@
       </c>
       <c r="H5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -926,11 +905,11 @@
       </c>
       <c r="R5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -938,10 +917,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2">
         <v>500</v>
@@ -955,19 +934,19 @@
       </c>
       <c r="G6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -983,7 +962,7 @@
       </c>
       <c r="N6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -991,19 +970,19 @@
       </c>
       <c r="P6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1011,10 +990,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2">
         <v>500</v>
@@ -1024,43 +1003,43 @@
       </c>
       <c r="F7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -1068,7 +1047,7 @@
       </c>
       <c r="Q7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1076,7 +1055,7 @@
       </c>
       <c r="S7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1084,10 +1063,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2">
         <v>500</v>
@@ -1097,15 +1076,15 @@
       </c>
       <c r="F8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -1113,15 +1092,15 @@
       </c>
       <c r="J8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -1129,27 +1108,27 @@
       </c>
       <c r="N8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1157,10 +1136,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2">
         <v>500</v>
@@ -1170,15 +1149,15 @@
       </c>
       <c r="F9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -1186,43 +1165,43 @@
       </c>
       <c r="J9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1230,10 +1209,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2">
         <v>500</v>
@@ -1243,59 +1222,59 @@
       </c>
       <c r="F10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1303,10 +1282,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2">
         <v>500</v>
@@ -1316,31 +1295,31 @@
       </c>
       <c r="F11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -1348,27 +1327,27 @@
       </c>
       <c r="N11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1376,10 +1355,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2">
         <v>500</v>
@@ -1389,23 +1368,23 @@
       </c>
       <c r="F12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -1417,31 +1396,31 @@
       </c>
       <c r="M12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1449,10 +1428,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" s="2">
         <v>500</v>
@@ -1462,59 +1441,59 @@
       </c>
       <c r="F13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1522,10 +1501,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>500</v>
@@ -1535,19 +1514,19 @@
       </c>
       <c r="F14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -1555,15 +1534,15 @@
       </c>
       <c r="K14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -1571,11 +1550,11 @@
       </c>
       <c r="O14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -1583,7 +1562,7 @@
       </c>
       <c r="R14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S14" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1595,10 +1574,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2">
         <v>500</v>
@@ -1608,7 +1587,7 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -1616,39 +1595,39 @@
       </c>
       <c r="H15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -1656,11 +1635,11 @@
       </c>
       <c r="R15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1668,10 +1647,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2">
         <v>500</v>
@@ -1681,59 +1660,59 @@
       </c>
       <c r="F16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -1741,10 +1720,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2">
         <v>500</v>
@@ -1754,11 +1733,11 @@
       </c>
       <c r="F17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -1766,47 +1745,47 @@
       </c>
       <c r="I17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -1814,10 +1793,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2">
         <v>500</v>
@@ -1827,23 +1806,23 @@
       </c>
       <c r="F18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -1851,23 +1830,23 @@
       </c>
       <c r="L18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -1887,10 +1866,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D19" s="2">
         <v>500</v>
@@ -1900,59 +1879,59 @@
       </c>
       <c r="F19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="S19" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -1960,10 +1939,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D20" s="2">
         <v>500</v>
@@ -1973,15 +1952,15 @@
       </c>
       <c r="F20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -1989,15 +1968,15 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -2009,19 +1988,19 @@
       </c>
       <c r="O20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S20" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2033,10 +2012,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D21" s="2">
         <v>500</v>
@@ -2046,51 +2025,51 @@
       </c>
       <c r="F21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ref="G21:Q34" ca="1" si="3">INT(RAND()*7+4.5)</f>
         <v>5</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
       </c>
       <c r="P21" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2098,7 +2077,7 @@
       </c>
       <c r="S21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -2106,10 +2085,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D22" s="2">
         <v>500</v>
@@ -2118,20 +2097,20 @@
         <v>15</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f ca="1">INT(RAND()*7+4.5)</f>
+        <v>10</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" ref="G22:Q37" ca="1" si="3">INT(RAND()*7+4.5)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -2139,50 +2118,50 @@
       </c>
       <c r="K22" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S22" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>43</v>
+      <c r="B23" t="s">
+        <v>42</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2">
         <v>500</v>
@@ -2192,39 +2171,39 @@
       </c>
       <c r="F23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G23" s="2">
-        <f ca="1">INT(RAND()*7+4.5)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I23" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -2232,19 +2211,19 @@
       </c>
       <c r="P23" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S23" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -2252,10 +2231,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2">
         <v>500</v>
@@ -2264,24 +2243,24 @@
         <v>15</v>
       </c>
       <c r="F24" s="2">
-        <f ca="1">INT(RAND()*7+4.5)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I24" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -2289,46 +2268,46 @@
       </c>
       <c r="L24" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S24" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>44</v>
+      <c r="B25" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D25" s="2">
         <v>500</v>
@@ -2338,70 +2317,70 @@
       </c>
       <c r="F25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I25" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="S25" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="D26" s="2">
         <v>500</v>
@@ -2411,70 +2390,70 @@
       </c>
       <c r="F26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H26" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S26" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D27" s="2">
         <v>500</v>
@@ -2484,27 +2463,27 @@
       </c>
       <c r="F27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -2512,42 +2491,42 @@
       </c>
       <c r="M27" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S27" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D28" s="2">
         <v>500</v>
@@ -2557,70 +2536,70 @@
       </c>
       <c r="F28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S28" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D29" s="2">
         <v>500</v>
@@ -2630,11 +2609,11 @@
       </c>
       <c r="F29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -2642,15 +2621,15 @@
       </c>
       <c r="I29" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -2658,15 +2637,15 @@
       </c>
       <c r="M29" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -2674,26 +2653,26 @@
       </c>
       <c r="Q29" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S29" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D30" s="2">
         <v>500</v>
@@ -2703,70 +2682,70 @@
       </c>
       <c r="F30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S30" s="2">
         <f t="shared" ca="1" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D31" s="2">
         <v>500</v>
@@ -2776,7 +2755,7 @@
       </c>
       <c r="F31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -2784,43 +2763,43 @@
       </c>
       <c r="H31" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I31" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2828,18 +2807,18 @@
       </c>
       <c r="S31" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D32" s="2">
         <v>500</v>
@@ -2849,51 +2828,51 @@
       </c>
       <c r="F32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I32" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q32" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2901,18 +2880,18 @@
       </c>
       <c r="S32" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D33" s="2">
         <v>500</v>
@@ -2922,23 +2901,23 @@
       </c>
       <c r="F33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I33" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -2946,27 +2925,27 @@
       </c>
       <c r="L33" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2974,18 +2953,18 @@
       </c>
       <c r="S33" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D34" s="2">
         <v>500</v>
@@ -2995,43 +2974,43 @@
       </c>
       <c r="F34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I34" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -3039,7 +3018,7 @@
       </c>
       <c r="Q34" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3047,18 +3026,18 @@
       </c>
       <c r="S34" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D35" s="2">
         <v>500</v>
@@ -3068,70 +3047,70 @@
       </c>
       <c r="F35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ref="G35:Q43" ca="1" si="4">INT(RAND()*7+4.5)</f>
         <v>7</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
       </c>
       <c r="L35" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
       </c>
       <c r="M35" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
       </c>
       <c r="N35" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
       </c>
       <c r="O35" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
       </c>
       <c r="P35" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
       </c>
       <c r="Q35" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S35" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D36" s="2">
         <v>500</v>
@@ -3141,51 +3120,51 @@
       </c>
       <c r="F36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
       </c>
       <c r="L36" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
       </c>
       <c r="M36" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
       </c>
       <c r="N36" s="2">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>6</v>
       </c>
       <c r="O36" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
       </c>
       <c r="P36" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
       <c r="Q36" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3193,18 +3172,18 @@
       </c>
       <c r="S36" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D37" s="2">
         <v>500</v>
@@ -3214,70 +3193,70 @@
       </c>
       <c r="F37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
       </c>
       <c r="L37" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
       </c>
       <c r="M37" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
       <c r="N37" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
       </c>
       <c r="O37" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
       </c>
       <c r="P37" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
       </c>
       <c r="Q37" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S37" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D38" s="2">
         <v>500</v>
@@ -3290,12 +3269,12 @@
         <v>10</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" ref="G38:Q47" ca="1" si="4">INT(RAND()*7+4.5)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I38" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3307,15 +3286,15 @@
       </c>
       <c r="K38" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3323,34 +3302,34 @@
       </c>
       <c r="O38" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S38" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D39" s="2">
         <v>500</v>
@@ -3360,43 +3339,43 @@
       </c>
       <c r="F39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I39" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3404,26 +3383,26 @@
       </c>
       <c r="Q39" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S39" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D40" s="2">
         <v>500</v>
@@ -3437,39 +3416,39 @@
       </c>
       <c r="G40" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3477,26 +3456,26 @@
       </c>
       <c r="Q40" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S40" s="2">
         <f t="shared" ca="1" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D41" s="2">
         <v>500</v>
@@ -3506,23 +3485,23 @@
       </c>
       <c r="F41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H41" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I41" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3538,15 +3517,15 @@
       </c>
       <c r="N41" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3554,22 +3533,22 @@
       </c>
       <c r="R41" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S41" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D42" s="2">
         <v>500</v>
@@ -3579,11 +3558,11 @@
       </c>
       <c r="F42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H42" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3595,54 +3574,54 @@
       </c>
       <c r="J42" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="S42" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D43" s="2">
         <v>500</v>
@@ -3656,15 +3635,15 @@
       </c>
       <c r="G43" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H43" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I43" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3672,15 +3651,15 @@
       </c>
       <c r="K43" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3692,311 +3671,19 @@
       </c>
       <c r="P43" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S43" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A44" s="2">
-        <v>42</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="2">
-        <v>500</v>
-      </c>
-      <c r="E44" s="2">
-        <v>15</v>
-      </c>
-      <c r="F44" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="G44" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="H44" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="I44" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="J44" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="K44" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="L44" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="M44" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="N44" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="O44" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="P44" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="Q44" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="R44" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="S44" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A45" s="2">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="2">
-        <v>500</v>
-      </c>
-      <c r="E45" s="2">
-        <v>15</v>
-      </c>
-      <c r="F45" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G45" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="H45" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="I45" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="J45" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="K45" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="L45" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="M45" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="N45" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="O45" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="P45" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="Q45" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="R45" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="S45" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A46" s="2">
-        <v>44</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="2">
-        <v>500</v>
-      </c>
-      <c r="E46" s="2">
-        <v>15</v>
-      </c>
-      <c r="F46" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G46" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H46" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="I46" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J46" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="K46" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="L46" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="M46" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="N46" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="O46" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="P46" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="Q46" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="R46" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="S46" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A47" s="2">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="2">
-        <v>500</v>
-      </c>
-      <c r="E47" s="2">
-        <v>15</v>
-      </c>
-      <c r="F47" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="G47" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="H47" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="I47" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="J47" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="K47" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="L47" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="M47" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="N47" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="O47" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="P47" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="Q47" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="R47" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="S47" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
